--- a/data/trans_orig/IP3111_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP3111_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{451852FD-56D5-4E13-8F12-F34604F0FE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B60146FF-FE0B-4D0C-867C-1BE87186631F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5F05D35B-E35C-4B24-8568-6FA4C72D824B}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{48EF3385-679E-4300-870F-D227D6604452}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,10 +65,412 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Todos los días</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>5 ó 6 veces semana</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>3 ó 4 veces semana</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>1 ó 2 veces semana</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>1 ó 2 veces semana</t>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
   </si>
   <si>
     <t>24,78%</t>
@@ -98,67 +500,31 @@
     <t>29,34%</t>
   </si>
   <si>
-    <t>3 ó 4 veces semana</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>5 ó 6 veces semana</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
   </si>
   <si>
     <t>9,89%</t>
@@ -173,9 +539,6 @@
     <t>8,8%</t>
   </si>
   <si>
-    <t>17,22%</t>
-  </si>
-  <si>
     <t>11,07%</t>
   </si>
   <si>
@@ -185,228 +548,237 @@
     <t>13,77%</t>
   </si>
   <si>
-    <t>Todos los días</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
     <t>23,49%</t>
   </si>
   <si>
@@ -434,52 +806,25 @@
     <t>24,72%</t>
   </si>
   <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
   </si>
   <si>
     <t>14,76%</t>
@@ -506,349 +851,82 @@
     <t>20,12%</t>
   </si>
   <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
   </si>
   <si>
     <t>22,9%</t>
@@ -875,55 +953,25 @@
     <t>24,43%</t>
   </si>
   <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
   </si>
   <si>
     <t>11,65%</t>
@@ -951,54 +999,6 @@
   </si>
   <si>
     <t>14,73%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B301F7C-574F-437B-B308-40B3E08444F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB954C35-97B4-4C71-BFBA-A75385E8A9E9}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1508,10 +1508,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>59851</v>
+        <v>1515</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1523,10 +1523,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>49209</v>
+        <v>2771</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1538,10 +1538,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>109060</v>
+        <v>4285</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1559,253 +1559,253 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>39118</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>835</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>49</v>
-      </c>
-      <c r="I5" s="7">
-        <v>33248</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>835</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>102</v>
-      </c>
-      <c r="N5" s="7">
-        <v>72365</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2706</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>52</v>
-      </c>
-      <c r="D6" s="7">
-        <v>42778</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>4</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2142</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7">
-        <v>47</v>
-      </c>
-      <c r="I6" s="7">
-        <v>33326</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>8</v>
+      </c>
+      <c r="N6" s="7">
+        <v>4848</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="M6" s="7">
-        <v>99</v>
-      </c>
-      <c r="N6" s="7">
-        <v>76104</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3247</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="7">
-        <v>36</v>
-      </c>
-      <c r="D7" s="7">
-        <v>23883</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>10</v>
+      </c>
+      <c r="I7" s="7">
+        <v>6815</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="7">
-        <v>33</v>
-      </c>
-      <c r="I7" s="7">
-        <v>23479</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>15</v>
+      </c>
+      <c r="N7" s="7">
+        <v>10062</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="7">
-        <v>69</v>
-      </c>
-      <c r="N7" s="7">
-        <v>47363</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="7">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2562</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="7">
-        <v>31</v>
-      </c>
-      <c r="D8" s="7">
-        <v>23454</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2534</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="7">
-        <v>28</v>
-      </c>
-      <c r="I8" s="7">
-        <v>18696</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>10</v>
+      </c>
+      <c r="N8" s="7">
+        <v>5095</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="7">
-        <v>59</v>
-      </c>
-      <c r="N8" s="7">
-        <v>42150</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1367</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="7">
-        <v>72</v>
-      </c>
-      <c r="D9" s="7">
-        <v>52460</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>390</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="K9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>3</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1757</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="7">
-        <v>43</v>
-      </c>
-      <c r="I9" s="7">
-        <v>28504</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M9" s="7">
-        <v>115</v>
-      </c>
-      <c r="N9" s="7">
-        <v>80963</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,102 +1814,102 @@
         <v>3</v>
       </c>
       <c r="C10" s="7">
-        <v>323</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>241545</v>
+        <v>11397</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H10" s="7">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="I10" s="7">
-        <v>186462</v>
+        <v>15487</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>591</v>
+        <v>42</v>
       </c>
       <c r="N10" s="7">
-        <v>428006</v>
+        <v>26883</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D11" s="7">
-        <v>23975</v>
+        <v>22846</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="7">
+        <v>22</v>
+      </c>
+      <c r="I11" s="7">
+        <v>17341</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>40</v>
+      </c>
+      <c r="N11" s="7">
+        <v>40187</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="7">
-        <v>43</v>
-      </c>
-      <c r="I11" s="7">
-        <v>23671</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M11" s="7">
-        <v>79</v>
-      </c>
-      <c r="N11" s="7">
-        <v>47646</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,253 +1918,253 @@
         <v>20</v>
       </c>
       <c r="C12" s="7">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D12" s="7">
-        <v>20343</v>
+        <v>11960</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="7">
+        <v>23</v>
+      </c>
+      <c r="I12" s="7">
+        <v>15145</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="7">
-        <v>22</v>
-      </c>
-      <c r="I12" s="7">
-        <v>13381</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>38</v>
+      </c>
+      <c r="N12" s="7">
+        <v>27106</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="M12" s="7">
-        <v>50</v>
-      </c>
-      <c r="N12" s="7">
-        <v>33724</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>11960</v>
+        <v>20343</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="7">
+        <v>22</v>
+      </c>
+      <c r="I13" s="7">
+        <v>13381</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>50</v>
+      </c>
+      <c r="N13" s="7">
+        <v>33724</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="7">
-        <v>23</v>
-      </c>
-      <c r="I13" s="7">
-        <v>15145</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M13" s="7">
-        <v>38</v>
-      </c>
-      <c r="N13" s="7">
-        <v>27106</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" s="7">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D14" s="7">
-        <v>10679</v>
+        <v>23975</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="7">
+        <v>43</v>
+      </c>
+      <c r="I14" s="7">
+        <v>23671</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>79</v>
+      </c>
+      <c r="N14" s="7">
+        <v>47646</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="7">
-        <v>20</v>
-      </c>
-      <c r="I14" s="7">
-        <v>11773</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M14" s="7">
-        <v>34</v>
-      </c>
-      <c r="N14" s="7">
-        <v>22453</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C15" s="7">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D15" s="7">
-        <v>22846</v>
+        <v>22644</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="7">
+        <v>31</v>
+      </c>
+      <c r="I15" s="7">
+        <v>19380</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="7">
-        <v>22</v>
-      </c>
-      <c r="I15" s="7">
-        <v>17341</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>67</v>
+      </c>
+      <c r="N15" s="7">
+        <v>42025</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="M15" s="7">
-        <v>40</v>
-      </c>
-      <c r="N15" s="7">
-        <v>40187</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" s="7">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D16" s="7">
-        <v>22644</v>
+        <v>10679</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>20</v>
+      </c>
+      <c r="I16" s="7">
+        <v>11773</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="7">
-        <v>31</v>
-      </c>
-      <c r="I16" s="7">
-        <v>19380</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>34</v>
+      </c>
+      <c r="N16" s="7">
+        <v>22453</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M16" s="7">
-        <v>67</v>
-      </c>
-      <c r="N16" s="7">
-        <v>42025</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,13 +2179,13 @@
         <v>112448</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H17" s="7">
         <v>161</v>
@@ -2194,13 +2194,13 @@
         <v>100692</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M17" s="7">
         <v>308</v>
@@ -2209,66 +2209,66 @@
         <v>213140</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D18" s="7">
-        <v>40271</v>
+        <v>23454</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="7">
+        <v>28</v>
+      </c>
+      <c r="I18" s="7">
+        <v>18696</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>59</v>
+      </c>
+      <c r="N18" s="7">
+        <v>42150</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H18" s="7">
-        <v>42</v>
-      </c>
-      <c r="I18" s="7">
-        <v>30457</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="M18" s="7">
-        <v>97</v>
-      </c>
-      <c r="N18" s="7">
-        <v>70728</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,253 +2277,253 @@
         <v>20</v>
       </c>
       <c r="C19" s="7">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D19" s="7">
-        <v>20270</v>
+        <v>42778</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="7">
+        <v>47</v>
+      </c>
+      <c r="I19" s="7">
+        <v>33326</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>99</v>
+      </c>
+      <c r="N19" s="7">
+        <v>76104</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H19" s="7">
-        <v>42</v>
-      </c>
-      <c r="I19" s="7">
-        <v>28203</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M19" s="7">
-        <v>69</v>
-      </c>
-      <c r="N19" s="7">
-        <v>48473</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C20" s="7">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D20" s="7">
-        <v>22273</v>
+        <v>39118</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H20" s="7">
+        <v>49</v>
+      </c>
+      <c r="I20" s="7">
+        <v>33248</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="7">
-        <v>25</v>
-      </c>
-      <c r="I20" s="7">
-        <v>19450</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>102</v>
+      </c>
+      <c r="N20" s="7">
+        <v>72365</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="M20" s="7">
-        <v>53</v>
-      </c>
-      <c r="N20" s="7">
-        <v>41723</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="7">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D21" s="7">
-        <v>25313</v>
+        <v>59851</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" s="7">
+        <v>68</v>
+      </c>
+      <c r="I21" s="7">
+        <v>49209</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="H21" s="7">
-        <v>43</v>
-      </c>
-      <c r="I21" s="7">
-        <v>29946</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>147</v>
+      </c>
+      <c r="N21" s="7">
+        <v>109060</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="M21" s="7">
-        <v>78</v>
-      </c>
-      <c r="N21" s="7">
-        <v>55259</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" s="7">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D22" s="7">
-        <v>25145</v>
+        <v>52460</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>43</v>
+      </c>
+      <c r="I22" s="7">
+        <v>28504</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H22" s="7">
-        <v>32</v>
-      </c>
-      <c r="I22" s="7">
-        <v>25194</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>115</v>
+      </c>
+      <c r="N22" s="7">
+        <v>80963</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="M22" s="7">
-        <v>63</v>
-      </c>
-      <c r="N22" s="7">
-        <v>50339</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" s="7">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D23" s="7">
-        <v>38184</v>
+        <v>23883</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>33</v>
+      </c>
+      <c r="I23" s="7">
+        <v>23479</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H23" s="7">
-        <v>51</v>
-      </c>
-      <c r="I23" s="7">
-        <v>35240</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M23" s="7">
+        <v>69</v>
+      </c>
+      <c r="N23" s="7">
+        <v>47363</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="M23" s="7">
-        <v>107</v>
-      </c>
-      <c r="N23" s="7">
-        <v>73424</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,102 +2532,102 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>232</v>
+        <v>323</v>
       </c>
       <c r="D24" s="7">
-        <v>171456</v>
+        <v>241545</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H24" s="7">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="I24" s="7">
-        <v>168490</v>
+        <v>186462</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M24" s="7">
-        <v>467</v>
+        <v>591</v>
       </c>
       <c r="N24" s="7">
-        <v>339947</v>
+        <v>428006</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D25" s="7">
-        <v>3247</v>
+        <v>23144</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>26</v>
+      </c>
+      <c r="I25" s="7">
+        <v>17245</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H25" s="7">
-        <v>10</v>
-      </c>
-      <c r="I25" s="7">
-        <v>6815</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>50</v>
+      </c>
+      <c r="N25" s="7">
+        <v>40389</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="M25" s="7">
-        <v>15</v>
-      </c>
-      <c r="N25" s="7">
-        <v>10062</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,97 +2636,97 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D26" s="7">
-        <v>2706</v>
+        <v>15775</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>23</v>
+      </c>
+      <c r="I26" s="7">
+        <v>25373</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H26" s="7">
-        <v>4</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2142</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>46</v>
+      </c>
+      <c r="N26" s="7">
+        <v>41148</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="M26" s="7">
-        <v>8</v>
-      </c>
-      <c r="N26" s="7">
-        <v>4848</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C27" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D27" s="7">
-        <v>0</v>
+        <v>36382</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="H27" s="7">
+        <v>52</v>
+      </c>
+      <c r="I27" s="7">
+        <v>40133</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1</v>
-      </c>
-      <c r="I27" s="7">
-        <v>835</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>194</v>
       </c>
       <c r="M27" s="7">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="N27" s="7">
-        <v>835</v>
+        <v>76514</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>195</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>196</v>
@@ -2735,43 +2735,43 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D28" s="7">
-        <v>1367</v>
+        <v>34304</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>197</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="I28" s="7">
-        <v>390</v>
+        <v>30133</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>199</v>
+        <v>85</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>200</v>
       </c>
       <c r="M28" s="7">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="N28" s="7">
-        <v>1757</v>
+        <v>64437</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>201</v>
@@ -2786,103 +2786,103 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D29" s="7">
-        <v>1515</v>
+        <v>38411</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H29" s="7">
+        <v>36</v>
+      </c>
+      <c r="I29" s="7">
+        <v>25929</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M29" s="7">
         <v>82</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H29" s="7">
-        <v>4</v>
-      </c>
-      <c r="I29" s="7">
-        <v>2771</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M29" s="7">
-        <v>5</v>
-      </c>
       <c r="N29" s="7">
-        <v>4285</v>
+        <v>64340</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30" s="7">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D30" s="7">
-        <v>2562</v>
+        <v>20951</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H30" s="7">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="I30" s="7">
-        <v>2534</v>
+        <v>27755</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M30" s="7">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="N30" s="7">
-        <v>5095</v>
+        <v>48706</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,102 +2891,102 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
-        <v>17</v>
+        <v>219</v>
       </c>
       <c r="D31" s="7">
-        <v>11397</v>
+        <v>168967</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H31" s="7">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c r="I31" s="7">
-        <v>15487</v>
+        <v>166568</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M31" s="7">
-        <v>42</v>
+        <v>442</v>
       </c>
       <c r="N31" s="7">
-        <v>26883</v>
+        <v>335535</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="7">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D32" s="7">
-        <v>34304</v>
+        <v>25145</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I32" s="7">
-        <v>30133</v>
+        <v>25194</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>82</v>
+        <v>226</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="N32" s="7">
-        <v>64437</v>
+        <v>50339</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,193 +2995,193 @@
         <v>20</v>
       </c>
       <c r="C33" s="7">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D33" s="7">
-        <v>36382</v>
+        <v>22273</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>230</v>
+        <v>139</v>
       </c>
       <c r="H33" s="7">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I33" s="7">
-        <v>40133</v>
+        <v>19450</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M33" s="7">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="N33" s="7">
-        <v>76514</v>
+        <v>41723</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C34" s="7">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D34" s="7">
-        <v>15775</v>
+        <v>20270</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H34" s="7">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I34" s="7">
-        <v>25373</v>
+        <v>28203</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M34" s="7">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="N34" s="7">
-        <v>41148</v>
+        <v>48473</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>244</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C35" s="7">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D35" s="7">
-        <v>20951</v>
+        <v>40271</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H35" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I35" s="7">
-        <v>27755</v>
+        <v>30457</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M35" s="7">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="N35" s="7">
-        <v>48706</v>
+        <v>70728</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C36" s="7">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D36" s="7">
-        <v>23144</v>
+        <v>38184</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H36" s="7">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I36" s="7">
-        <v>17245</v>
+        <v>35240</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>258</v>
+        <v>137</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>259</v>
       </c>
       <c r="M36" s="7">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="N36" s="7">
-        <v>40389</v>
+        <v>73424</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>260</v>
@@ -3196,13 +3196,13 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C37" s="7">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D37" s="7">
-        <v>38411</v>
+        <v>25313</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>263</v>
@@ -3214,10 +3214,10 @@
         <v>265</v>
       </c>
       <c r="H37" s="7">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I37" s="7">
-        <v>25929</v>
+        <v>29946</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>266</v>
@@ -3226,19 +3226,19 @@
         <v>267</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="M37" s="7">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N37" s="7">
-        <v>64340</v>
+        <v>55259</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>269</v>
+        <v>121</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>270</v>
@@ -3250,49 +3250,49 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="D38" s="7">
-        <v>168967</v>
+        <v>171456</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H38" s="7">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="I38" s="7">
-        <v>166568</v>
+        <v>168490</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M38" s="7">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="N38" s="7">
-        <v>335535</v>
+        <v>339947</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,49 +3303,49 @@
         <v>10</v>
       </c>
       <c r="C39" s="7">
-        <v>220</v>
+        <v>105</v>
       </c>
       <c r="D39" s="7">
-        <v>161648</v>
+        <v>96104</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>271</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>158</v>
+        <v>272</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H39" s="7">
-        <v>206</v>
+        <v>112</v>
       </c>
       <c r="I39" s="7">
-        <v>140286</v>
+        <v>81247</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M39" s="7">
-        <v>426</v>
+        <v>217</v>
       </c>
       <c r="N39" s="7">
-        <v>301934</v>
+        <v>177351</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,28 +3354,28 @@
         <v>20</v>
       </c>
       <c r="C40" s="7">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="D40" s="7">
-        <v>118819</v>
+        <v>92787</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H40" s="7">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="I40" s="7">
-        <v>117106</v>
+        <v>94129</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>283</v>
@@ -3384,10 +3384,10 @@
         <v>284</v>
       </c>
       <c r="M40" s="7">
-        <v>327</v>
+        <v>237</v>
       </c>
       <c r="N40" s="7">
-        <v>235924</v>
+        <v>186917</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>285</v>
@@ -3402,13 +3402,13 @@
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C41" s="7">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="D41" s="7">
-        <v>92787</v>
+        <v>118819</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>288</v>
@@ -3420,61 +3420,61 @@
         <v>290</v>
       </c>
       <c r="H41" s="7">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="I41" s="7">
-        <v>94129</v>
+        <v>117106</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>148</v>
+        <v>291</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M41" s="7">
-        <v>237</v>
+        <v>327</v>
       </c>
       <c r="N41" s="7">
-        <v>186917</v>
+        <v>235924</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C42" s="7">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="D42" s="7">
-        <v>82194</v>
+        <v>161648</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>297</v>
+        <v>224</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>298</v>
       </c>
       <c r="H42" s="7">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="I42" s="7">
-        <v>93343</v>
+        <v>140286</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>299</v>
@@ -3486,10 +3486,10 @@
         <v>301</v>
       </c>
       <c r="M42" s="7">
-        <v>262</v>
+        <v>426</v>
       </c>
       <c r="N42" s="7">
-        <v>175538</v>
+        <v>301934</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>302</v>
@@ -3504,97 +3504,97 @@
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C43" s="7">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="D43" s="7">
-        <v>96104</v>
+        <v>154261</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="H43" s="7">
+        <v>166</v>
+      </c>
+      <c r="I43" s="7">
+        <v>111587</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="H43" s="7">
-        <v>112</v>
-      </c>
-      <c r="I43" s="7">
-        <v>81247</v>
-      </c>
-      <c r="J43" s="7" t="s">
+      <c r="K43" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="M43" s="7">
+        <v>381</v>
+      </c>
+      <c r="N43" s="7">
+        <v>265848</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="M43" s="7">
-        <v>217</v>
-      </c>
-      <c r="N43" s="7">
-        <v>177351</v>
-      </c>
-      <c r="O43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C44" s="7">
-        <v>215</v>
+        <v>122</v>
       </c>
       <c r="D44" s="7">
-        <v>154261</v>
+        <v>82194</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>137</v>
+        <v>312</v>
       </c>
       <c r="F44" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="H44" s="7">
+        <v>140</v>
+      </c>
+      <c r="I44" s="7">
+        <v>93343</v>
+      </c>
+      <c r="J44" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="H44" s="7">
-        <v>166</v>
-      </c>
-      <c r="I44" s="7">
-        <v>111587</v>
-      </c>
-      <c r="J44" s="7" t="s">
+      <c r="K44" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="L44" s="7" t="s">
+      <c r="M44" s="7">
+        <v>262</v>
+      </c>
+      <c r="N44" s="7">
+        <v>175538</v>
+      </c>
+      <c r="O44" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="M44" s="7">
-        <v>381</v>
-      </c>
-      <c r="N44" s="7">
-        <v>265848</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>319</v>
@@ -3615,13 +3615,13 @@
         <v>705813</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H45" s="7">
         <v>912</v>
@@ -3630,13 +3630,13 @@
         <v>637698</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M45" s="7">
         <v>1850</v>
@@ -3645,13 +3645,13 @@
         <v>1343511</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP3111_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP3111_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B60146FF-FE0B-4D0C-867C-1BE87186631F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{984EFCE8-DE03-49A0-9148-48E2055AA16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{48EF3385-679E-4300-870F-D227D6604452}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A49DEA0D-69E6-4B11-9681-9A68F9ED3796}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="317">
   <si>
     <t>Menores según la frecuencia de bebe refrescos u otras bebidas que contienen azúcar en 2023 (Tasa respuesta: 96,35%)</t>
   </si>
@@ -68,15 +68,150 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>1 ó 2 veces semana</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>3 ó 4 veces semana</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>5 ó 6 veces semana</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
     <t>Todos los días</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>45,97%</t>
   </si>
   <si>
@@ -98,907 +233,760 @@
     <t>36,24%</t>
   </si>
   <si>
-    <t>5 ó 6 veces semana</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>3 ó 4 veces semana</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>1 ó 2 veces semana</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
     <t>20,32%</t>
   </si>
   <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
   </si>
   <si>
     <t>17,22%</t>
   </si>
   <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
   </si>
   <si>
     <t>18,85%</t>
   </si>
   <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
   </si>
   <si>
     <t>21,63%</t>
   </si>
   <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
     <t>9,71%</t>
   </si>
   <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
   </si>
   <si>
     <t>10,03%</t>
   </si>
   <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
   </si>
   <si>
     <t>9,85%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
     <t>13,7%</t>
   </si>
   <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
   </si>
   <si>
     <t>12,04%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
   </si>
   <si>
     <t>19,79%</t>
   </si>
   <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
   </si>
   <si>
     <t>20,22%</t>
   </si>
   <si>
-    <t>14,95%</t>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
   </si>
   <si>
     <t>10,9%</t>
   </si>
   <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
   </si>
   <si>
     <t>13,62%</t>
   </si>
   <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
+    <t>11,11%</t>
   </si>
   <si>
     <t>12,74%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
+    <t>15,14%</t>
   </si>
   <si>
     <t>11,46%</t>
   </si>
   <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +997,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1105,39 +1093,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1189,7 +1177,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1300,13 +1288,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1315,6 +1296,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1379,19 +1367,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB954C35-97B4-4C71-BFBA-A75385E8A9E9}">
-  <dimension ref="A1:Q45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA69273-F4F9-46AB-A700-F75C0408FD0E}">
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1508,10 +1516,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>1515</v>
+        <v>1367</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1523,49 +1531,49 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>2771</v>
+        <v>390</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1757</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>5</v>
-      </c>
-      <c r="N4" s="7">
-        <v>4285</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2562</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
@@ -1574,229 +1582,229 @@
         <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>835</v>
+        <v>2534</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>835</v>
+        <v>5095</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>2706</v>
+        <v>3247</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I6" s="7">
-        <v>2142</v>
+        <v>6815</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N6" s="7">
-        <v>4848</v>
+        <v>10062</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>3247</v>
+        <v>2706</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>6815</v>
+        <v>2142</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>10062</v>
+        <v>4848</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>2562</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>2534</v>
+        <v>835</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>53</v>
       </c>
       <c r="M8" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>5095</v>
+        <v>835</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>54</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1515</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="C9" s="7">
-        <v>2</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1367</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="7">
+        <v>4</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2771</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>390</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>61</v>
       </c>
       <c r="M9" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9" s="7">
-        <v>1757</v>
+        <v>4285</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>62</v>
@@ -1867,10 +1875,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7">
-        <v>22846</v>
+        <v>10679</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>67</v>
@@ -1882,10 +1890,10 @@
         <v>69</v>
       </c>
       <c r="H11" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I11" s="7">
-        <v>17341</v>
+        <v>11773</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>70</v>
@@ -1897,100 +1905,100 @@
         <v>72</v>
       </c>
       <c r="M11" s="7">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N11" s="7">
-        <v>40187</v>
+        <v>22453</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>11960</v>
+        <v>22644</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>31</v>
+      </c>
+      <c r="I12" s="7">
+        <v>19380</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="7">
-        <v>23</v>
-      </c>
-      <c r="I12" s="7">
-        <v>15145</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>67</v>
+      </c>
+      <c r="N12" s="7">
+        <v>42025</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M12" s="7">
-        <v>38</v>
-      </c>
-      <c r="N12" s="7">
-        <v>27106</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7">
-        <v>20343</v>
+        <v>23975</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>43</v>
+      </c>
+      <c r="I13" s="7">
+        <v>23671</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="H13" s="7">
-        <v>22</v>
-      </c>
-      <c r="I13" s="7">
-        <v>13381</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>88</v>
@@ -1999,10 +2007,10 @@
         <v>89</v>
       </c>
       <c r="M13" s="7">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="N13" s="7">
-        <v>33724</v>
+        <v>47646</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>90</v>
@@ -2017,13 +2025,13 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7">
-        <v>23975</v>
+        <v>20343</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>93</v>
@@ -2035,136 +2043,136 @@
         <v>95</v>
       </c>
       <c r="H14" s="7">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I14" s="7">
-        <v>23671</v>
+        <v>13381</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>50</v>
+      </c>
+      <c r="N14" s="7">
+        <v>33724</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M14" s="7">
-        <v>79</v>
-      </c>
-      <c r="N14" s="7">
-        <v>47646</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C15" s="7">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D15" s="7">
-        <v>22644</v>
+        <v>11960</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="H15" s="7">
+        <v>23</v>
+      </c>
+      <c r="I15" s="7">
+        <v>15145</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="7">
-        <v>31</v>
-      </c>
-      <c r="I15" s="7">
-        <v>19380</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>38</v>
+      </c>
+      <c r="N15" s="7">
+        <v>27106</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="P15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="M15" s="7">
-        <v>67</v>
-      </c>
-      <c r="N15" s="7">
-        <v>42025</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D16" s="7">
-        <v>10679</v>
+        <v>22846</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="7">
+        <v>22</v>
+      </c>
+      <c r="I16" s="7">
+        <v>17341</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="7">
-        <v>20</v>
-      </c>
-      <c r="I16" s="7">
-        <v>11773</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>40</v>
+      </c>
+      <c r="N16" s="7">
+        <v>40187</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="M16" s="7">
-        <v>34</v>
-      </c>
-      <c r="N16" s="7">
-        <v>22453</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,133 +2228,133 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D18" s="7">
-        <v>23454</v>
+        <v>23883</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>33</v>
+      </c>
+      <c r="I18" s="7">
+        <v>23479</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H18" s="7">
-        <v>28</v>
-      </c>
-      <c r="I18" s="7">
-        <v>18696</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>69</v>
+      </c>
+      <c r="N18" s="7">
+        <v>47363</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="M18" s="7">
-        <v>59</v>
-      </c>
-      <c r="N18" s="7">
-        <v>42150</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="7">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D19" s="7">
-        <v>42778</v>
+        <v>52460</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>43</v>
+      </c>
+      <c r="I19" s="7">
+        <v>28504</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H19" s="7">
-        <v>47</v>
-      </c>
-      <c r="I19" s="7">
-        <v>33326</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>115</v>
+      </c>
+      <c r="N19" s="7">
+        <v>80963</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M19" s="7">
-        <v>99</v>
-      </c>
-      <c r="N19" s="7">
-        <v>76104</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C20" s="7">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D20" s="7">
-        <v>39118</v>
+        <v>59851</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>138</v>
       </c>
       <c r="H20" s="7">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="I20" s="7">
-        <v>33248</v>
+        <v>49209</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>139</v>
@@ -2358,10 +2366,10 @@
         <v>141</v>
       </c>
       <c r="M20" s="7">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="N20" s="7">
-        <v>72365</v>
+        <v>109060</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>142</v>
@@ -2376,154 +2384,154 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C21" s="7">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D21" s="7">
-        <v>59851</v>
+        <v>39118</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>145</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>49</v>
+      </c>
+      <c r="I21" s="7">
+        <v>33248</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H21" s="7">
-        <v>68</v>
-      </c>
-      <c r="I21" s="7">
-        <v>49209</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>102</v>
+      </c>
+      <c r="N21" s="7">
+        <v>72365</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="M21" s="7">
-        <v>147</v>
-      </c>
-      <c r="N21" s="7">
-        <v>109060</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="7">
+        <v>52</v>
+      </c>
+      <c r="D22" s="7">
+        <v>42778</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="7">
         <v>47</v>
       </c>
-      <c r="C22" s="7">
-        <v>72</v>
-      </c>
-      <c r="D22" s="7">
-        <v>52460</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="I22" s="7">
+        <v>33326</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H22" s="7">
-        <v>43</v>
-      </c>
-      <c r="I22" s="7">
-        <v>28504</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>99</v>
+      </c>
+      <c r="N22" s="7">
+        <v>76104</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="M22" s="7">
-        <v>115</v>
-      </c>
-      <c r="N22" s="7">
-        <v>80963</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="7">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D23" s="7">
-        <v>23883</v>
+        <v>23454</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>28</v>
+      </c>
+      <c r="I23" s="7">
+        <v>18696</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="H23" s="7">
-        <v>33</v>
-      </c>
-      <c r="I23" s="7">
-        <v>23479</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>166</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="M23" s="7">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="N23" s="7">
-        <v>47363</v>
+        <v>42150</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,46 +2587,46 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D25" s="7">
-        <v>23144</v>
+        <v>20951</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I25" s="7">
-        <v>17245</v>
+        <v>27755</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="M25" s="7">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="N25" s="7">
-        <v>40389</v>
+        <v>48706</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>177</v>
@@ -2633,13 +2641,13 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D26" s="7">
-        <v>15775</v>
+        <v>38411</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>180</v>
@@ -2651,10 +2659,10 @@
         <v>182</v>
       </c>
       <c r="H26" s="7">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I26" s="7">
-        <v>25373</v>
+        <v>25929</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>183</v>
@@ -2663,115 +2671,115 @@
         <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M26" s="7">
+        <v>82</v>
+      </c>
+      <c r="N26" s="7">
+        <v>64340</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="M26" s="7">
-        <v>46</v>
-      </c>
-      <c r="N26" s="7">
-        <v>41148</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C27" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="7">
-        <v>36382</v>
+        <v>34304</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7">
+        <v>43</v>
+      </c>
+      <c r="I27" s="7">
+        <v>30133</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H27" s="7">
-        <v>52</v>
-      </c>
-      <c r="I27" s="7">
-        <v>40133</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>88</v>
+      </c>
+      <c r="N27" s="7">
+        <v>64437</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="P27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="M27" s="7">
-        <v>98</v>
-      </c>
-      <c r="N27" s="7">
-        <v>76514</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C28" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D28" s="7">
-        <v>34304</v>
+        <v>36382</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>52</v>
+      </c>
+      <c r="I28" s="7">
+        <v>40133</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="H28" s="7">
-        <v>43</v>
-      </c>
-      <c r="I28" s="7">
-        <v>30133</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>200</v>
       </c>
       <c r="M28" s="7">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="N28" s="7">
-        <v>64437</v>
+        <v>76514</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>201</v>
@@ -2786,13 +2794,13 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C29" s="7">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D29" s="7">
-        <v>38411</v>
+        <v>15775</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>204</v>
@@ -2804,10 +2812,10 @@
         <v>206</v>
       </c>
       <c r="H29" s="7">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I29" s="7">
-        <v>25929</v>
+        <v>25373</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>207</v>
@@ -2816,19 +2824,19 @@
         <v>208</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>99</v>
+        <v>209</v>
       </c>
       <c r="M29" s="7">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="N29" s="7">
-        <v>64340</v>
+        <v>41148</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>211</v>
@@ -2837,13 +2845,13 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="7">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D30" s="7">
-        <v>20951</v>
+        <v>23144</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>212</v>
@@ -2855,10 +2863,10 @@
         <v>214</v>
       </c>
       <c r="H30" s="7">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I30" s="7">
-        <v>27755</v>
+        <v>17245</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>215</v>
@@ -2870,10 +2878,10 @@
         <v>217</v>
       </c>
       <c r="M30" s="7">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="N30" s="7">
-        <v>48706</v>
+        <v>40389</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>218</v>
@@ -2944,10 +2952,10 @@
         <v>10</v>
       </c>
       <c r="C32" s="7">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D32" s="7">
-        <v>25145</v>
+        <v>25313</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>222</v>
@@ -2959,10 +2967,10 @@
         <v>224</v>
       </c>
       <c r="H32" s="7">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I32" s="7">
-        <v>25194</v>
+        <v>29946</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>225</v>
@@ -2974,10 +2982,10 @@
         <v>227</v>
       </c>
       <c r="M32" s="7">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="N32" s="7">
-        <v>50339</v>
+        <v>55259</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>228</v>
@@ -2992,13 +3000,13 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="7">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D33" s="7">
-        <v>22273</v>
+        <v>38184</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>231</v>
@@ -3007,34 +3015,34 @@
         <v>232</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>139</v>
+        <v>233</v>
       </c>
       <c r="H33" s="7">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I33" s="7">
-        <v>19450</v>
+        <v>35240</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M33" s="7">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="N33" s="7">
-        <v>41723</v>
+        <v>73424</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>237</v>
+        <v>93</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>238</v>
@@ -3043,13 +3051,13 @@
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C34" s="7">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D34" s="7">
-        <v>20270</v>
+        <v>40271</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>239</v>
@@ -3064,43 +3072,43 @@
         <v>42</v>
       </c>
       <c r="I34" s="7">
-        <v>28203</v>
+        <v>30457</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>242</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>97</v>
+      </c>
+      <c r="N34" s="7">
+        <v>70728</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="M34" s="7">
-        <v>69</v>
-      </c>
-      <c r="N34" s="7">
-        <v>48473</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C35" s="7">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D35" s="7">
-        <v>40271</v>
+        <v>20270</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>247</v>
@@ -3115,7 +3123,7 @@
         <v>42</v>
       </c>
       <c r="I35" s="7">
-        <v>30457</v>
+        <v>28203</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>250</v>
@@ -3127,10 +3135,10 @@
         <v>252</v>
       </c>
       <c r="M35" s="7">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="N35" s="7">
-        <v>70728</v>
+        <v>48473</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>253</v>
@@ -3145,103 +3153,103 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C36" s="7">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D36" s="7">
-        <v>38184</v>
+        <v>22273</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>256</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H36" s="7">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I36" s="7">
-        <v>35240</v>
+        <v>19450</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>137</v>
+        <v>260</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M36" s="7">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="N36" s="7">
-        <v>73424</v>
+        <v>41723</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>262</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="7">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D37" s="7">
-        <v>25313</v>
+        <v>25145</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H37" s="7">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I37" s="7">
-        <v>29946</v>
+        <v>25194</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M37" s="7">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="N37" s="7">
-        <v>55259</v>
+        <v>50339</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>121</v>
+        <v>271</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,79 +3311,79 @@
         <v>10</v>
       </c>
       <c r="C39" s="7">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D39" s="7">
-        <v>96104</v>
+        <v>82194</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H39" s="7">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="I39" s="7">
-        <v>81247</v>
+        <v>93343</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>275</v>
       </c>
       <c r="L39" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M39" s="7">
+        <v>262</v>
+      </c>
+      <c r="N39" s="7">
+        <v>175538</v>
+      </c>
+      <c r="O39" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="M39" s="7">
-        <v>217</v>
-      </c>
-      <c r="N39" s="7">
-        <v>177351</v>
-      </c>
-      <c r="O39" s="7" t="s">
+      <c r="P39" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C40" s="7">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="D40" s="7">
-        <v>92787</v>
+        <v>154261</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="H40" s="7">
+        <v>166</v>
+      </c>
+      <c r="I40" s="7">
+        <v>111587</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="H40" s="7">
-        <v>119</v>
-      </c>
-      <c r="I40" s="7">
-        <v>94129</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>283</v>
@@ -3384,10 +3392,10 @@
         <v>284</v>
       </c>
       <c r="M40" s="7">
-        <v>237</v>
+        <v>381</v>
       </c>
       <c r="N40" s="7">
-        <v>186917</v>
+        <v>265848</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>285</v>
@@ -3402,13 +3410,13 @@
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C41" s="7">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="D41" s="7">
-        <v>118819</v>
+        <v>161648</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>288</v>
@@ -3420,10 +3428,10 @@
         <v>290</v>
       </c>
       <c r="H41" s="7">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="I41" s="7">
-        <v>117106</v>
+        <v>140286</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>291</v>
@@ -3435,172 +3443,172 @@
         <v>293</v>
       </c>
       <c r="M41" s="7">
-        <v>327</v>
+        <v>426</v>
       </c>
       <c r="N41" s="7">
-        <v>235924</v>
+        <v>301934</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>294</v>
       </c>
       <c r="P41" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C42" s="7">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="D42" s="7">
-        <v>161648</v>
+        <v>118819</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>298</v>
       </c>
       <c r="H42" s="7">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="I42" s="7">
-        <v>140286</v>
+        <v>117106</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>299</v>
       </c>
       <c r="K42" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="M42" s="7">
+        <v>327</v>
+      </c>
+      <c r="N42" s="7">
+        <v>235924</v>
+      </c>
+      <c r="O42" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="M42" s="7">
-        <v>426</v>
-      </c>
-      <c r="N42" s="7">
-        <v>301934</v>
-      </c>
-      <c r="O42" s="7" t="s">
+      <c r="P42" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C43" s="7">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="D43" s="7">
-        <v>154261</v>
+        <v>92787</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>244</v>
+        <v>304</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>305</v>
       </c>
       <c r="G43" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H43" s="7">
+        <v>119</v>
+      </c>
+      <c r="I43" s="7">
+        <v>94129</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="H43" s="7">
-        <v>166</v>
-      </c>
-      <c r="I43" s="7">
-        <v>111587</v>
-      </c>
-      <c r="J43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="M43" s="7">
+        <v>237</v>
+      </c>
+      <c r="N43" s="7">
+        <v>186917</v>
+      </c>
+      <c r="O43" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="P43" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="M43" s="7">
-        <v>381</v>
-      </c>
-      <c r="N43" s="7">
-        <v>265848</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>310</v>
-      </c>
       <c r="Q43" s="7" t="s">
-        <v>311</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="7">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D44" s="7">
-        <v>82194</v>
+        <v>96104</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44" s="7">
+        <v>112</v>
+      </c>
+      <c r="I44" s="7">
+        <v>81247</v>
+      </c>
+      <c r="J44" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="K44" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="M44" s="7">
+        <v>217</v>
+      </c>
+      <c r="N44" s="7">
+        <v>177351</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H44" s="7">
-        <v>140</v>
-      </c>
-      <c r="I44" s="7">
-        <v>93343</v>
-      </c>
-      <c r="J44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M44" s="7">
-        <v>262</v>
-      </c>
-      <c r="N44" s="7">
-        <v>175538</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,6 +3660,11 @@
       </c>
       <c r="Q45" s="7" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP3111_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP3111_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{984EFCE8-DE03-49A0-9148-48E2055AA16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A198EC5C-D6E7-4A7D-AA88-9979218B3411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A49DEA0D-69E6-4B11-9681-9A68F9ED3796}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{46083A6C-9560-49F2-AFDC-FDA74DAF9A36}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="319">
   <si>
     <t>Menores según la frecuencia de bebe refrescos u otras bebidas que contienen azúcar en 2023 (Tasa respuesta: 96,35%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -77,22 +77,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>38,15%</t>
+    <t>40,09%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>14,16%</t>
+    <t>12,66%</t>
   </si>
   <si>
     <t>6,54%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
   </si>
   <si>
     <t>menos de 1 vez semana</t>
@@ -101,28 +101,28 @@
     <t>22,48%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
   </si>
   <si>
     <t>16,36%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
   </si>
   <si>
     <t>18,95%</t>
   </si>
   <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
   </si>
   <si>
     <t>1 ó 2 veces semana</t>
@@ -131,28 +131,28 @@
     <t>28,49%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
   </si>
   <si>
     <t>44,01%</t>
   </si>
   <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
   </si>
   <si>
     <t>37,43%</t>
   </si>
   <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
   </si>
   <si>
     <t>3 ó 4 veces semana</t>
@@ -161,28 +161,28 @@
     <t>23,74%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
   </si>
   <si>
     <t>13,83%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
   </si>
   <si>
     <t>5 ó 6 veces semana</t>
@@ -197,13 +197,13 @@
     <t>5,39%</t>
   </si>
   <si>
-    <t>24,14%</t>
+    <t>25,98%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>15,1%</t>
+    <t>14,62%</t>
   </si>
   <si>
     <t>Todos los días</t>
@@ -212,778 +212,784 @@
     <t>13,29%</t>
   </si>
   <si>
-    <t>45,97%</t>
+    <t>46,06%</t>
   </si>
   <si>
     <t>17,89%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>9,5%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
   </si>
   <si>
     <t>11,69%</t>
   </si>
   <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
   </si>
   <si>
     <t>20,14%</t>
   </si>
   <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
     <t>14,64%</t>
   </si>
   <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1398,7 +1404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA69273-F4F9-46AB-A700-F75C0408FD0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BFB285-C1C2-48C8-92CA-049952CDBFD3}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1986,10 +1992,10 @@
         <v>84</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -1998,13 +2004,13 @@
         <v>23671</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>79</v>
@@ -2013,13 +2019,13 @@
         <v>47646</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,13 +2040,13 @@
         <v>20343</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -2052,10 +2058,10 @@
         <v>57</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>50</v>
@@ -2064,10 +2070,10 @@
         <v>33724</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>99</v>
@@ -2118,10 +2124,10 @@
         <v>106</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,13 +2142,13 @@
         <v>22846</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -2151,10 +2157,10 @@
         <v>17341</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>113</v>
@@ -2396,10 +2402,10 @@
         <v>145</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H21" s="7">
         <v>49</v>
@@ -2408,13 +2414,13 @@
         <v>33248</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M21" s="7">
         <v>102</v>
@@ -2423,13 +2429,13 @@
         <v>72365</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,13 +2450,13 @@
         <v>42778</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -2459,13 +2465,13 @@
         <v>33326</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M22" s="7">
         <v>99</v>
@@ -2474,13 +2480,13 @@
         <v>76104</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2495,13 +2501,13 @@
         <v>23454</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H23" s="7">
         <v>28</v>
@@ -2510,13 +2516,13 @@
         <v>18696</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M23" s="7">
         <v>59</v>
@@ -2525,13 +2531,13 @@
         <v>42150</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,7 +2593,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2599,13 +2605,13 @@
         <v>20951</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -2614,13 +2620,13 @@
         <v>27755</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>78</v>
@@ -2629,13 +2635,13 @@
         <v>48706</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,13 +2656,13 @@
         <v>38411</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>36</v>
@@ -2665,13 +2671,13 @@
         <v>25929</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>82</v>
@@ -2680,13 +2686,13 @@
         <v>64340</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,13 +2707,13 @@
         <v>34304</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H27" s="7">
         <v>43</v>
@@ -2716,13 +2722,13 @@
         <v>30133</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>88</v>
@@ -2731,13 +2737,13 @@
         <v>64437</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,13 +2758,13 @@
         <v>36382</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H28" s="7">
         <v>52</v>
@@ -2767,13 +2773,13 @@
         <v>40133</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M28" s="7">
         <v>98</v>
@@ -2782,13 +2788,13 @@
         <v>76514</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,13 +2809,13 @@
         <v>15775</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>23</v>
@@ -2818,13 +2824,13 @@
         <v>25373</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M29" s="7">
         <v>46</v>
@@ -2833,13 +2839,13 @@
         <v>41148</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,13 +2860,13 @@
         <v>23144</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H30" s="7">
         <v>26</v>
@@ -2869,13 +2875,13 @@
         <v>17245</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M30" s="7">
         <v>50</v>
@@ -2884,13 +2890,13 @@
         <v>40389</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,7 +2952,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2958,13 +2964,13 @@
         <v>25313</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>43</v>
@@ -2973,13 +2979,13 @@
         <v>29946</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="M32" s="7">
         <v>78</v>
@@ -2988,13 +2994,13 @@
         <v>55259</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,13 +3015,13 @@
         <v>38184</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H33" s="7">
         <v>51</v>
@@ -3024,13 +3030,13 @@
         <v>35240</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>235</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>236</v>
+        <v>129</v>
       </c>
       <c r="M33" s="7">
         <v>107</v>
@@ -3039,10 +3045,10 @@
         <v>73424</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>238</v>
@@ -3078,10 +3084,10 @@
         <v>242</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M34" s="7">
         <v>97</v>
@@ -3090,13 +3096,13 @@
         <v>70728</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3117,13 @@
         <v>20270</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H35" s="7">
         <v>42</v>
@@ -3126,13 +3132,13 @@
         <v>28203</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M35" s="7">
         <v>69</v>
@@ -3141,13 +3147,13 @@
         <v>48473</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,13 +3168,13 @@
         <v>22273</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H36" s="7">
         <v>25</v>
@@ -3177,13 +3183,13 @@
         <v>19450</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="M36" s="7">
         <v>53</v>
@@ -3198,7 +3204,7 @@
         <v>263</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>82</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3213,13 +3219,13 @@
         <v>25145</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H37" s="7">
         <v>32</v>
@@ -3228,10 +3234,10 @@
         <v>25194</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>269</v>
@@ -3317,13 +3323,13 @@
         <v>82194</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="G39" s="7" t="s">
-        <v>274</v>
+        <v>43</v>
       </c>
       <c r="H39" s="7">
         <v>140</v>
@@ -3332,13 +3338,13 @@
         <v>93343</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>76</v>
+        <v>274</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>275</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>174</v>
+        <v>276</v>
       </c>
       <c r="M39" s="7">
         <v>262</v>
@@ -3347,13 +3353,13 @@
         <v>175538</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3440,13 @@
         <v>140286</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M41" s="7">
         <v>426</v>
@@ -3449,13 +3455,13 @@
         <v>301934</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3476,13 @@
         <v>118819</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H42" s="7">
         <v>169</v>
@@ -3485,10 +3491,10 @@
         <v>117106</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>300</v>
@@ -3527,7 +3533,7 @@
         <v>305</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>302</v>
+        <v>97</v>
       </c>
       <c r="H43" s="7">
         <v>119</v>
@@ -3536,13 +3542,13 @@
         <v>94129</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K43" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M43" s="7">
         <v>237</v>
@@ -3551,13 +3557,13 @@
         <v>186917</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,13 +3578,13 @@
         <v>96104</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H44" s="7">
         <v>112</v>
@@ -3590,10 +3596,10 @@
         <v>312</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M44" s="7">
         <v>217</v>
@@ -3602,13 +3608,13 @@
         <v>177351</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>154</v>
+        <v>315</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,7 +3670,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
